--- a/data/trans_orig/P14C08-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14C08-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4933671A-8A6E-4853-8D04-BCACE9E75B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4162D97-DDEF-45F6-88BA-F9014BD378FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F80CCF92-4F8E-4016-ACAA-00DD79FAB499}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BE81AC46-A989-44F1-A916-0437108BD709}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="132">
   <si>
     <t>Población según el tiempo de diagnóstico del enfermedad crónica de pulmón en 2015 (Tasa respuesta: 1,61%)</t>
   </si>
@@ -107,7 +107,7 @@
     <t>79,85%</t>
   </si>
   <si>
-    <t>19,71%</t>
+    <t>19,97%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -122,7 +122,7 @@
     <t>20,15%</t>
   </si>
   <si>
-    <t>80,29%</t>
+    <t>80,03%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -140,10 +140,10 @@
     <t>53,48%</t>
   </si>
   <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
   </si>
   <si>
     <t>28,74%</t>
@@ -158,7 +158,7 @@
     <t>27,21%</t>
   </si>
   <si>
-    <t>71,6%</t>
+    <t>71,58%</t>
   </si>
   <si>
     <t>42,21%</t>
@@ -170,7 +170,7 @@
     <t>19,31%</t>
   </si>
   <si>
-    <t>53,22%</t>
+    <t>66,23%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -179,7 +179,7 @@
     <t>84,99%</t>
   </si>
   <si>
-    <t>40,45%</t>
+    <t>40,73%</t>
   </si>
   <si>
     <t>50,44%</t>
@@ -188,16 +188,16 @@
     <t>72,76%</t>
   </si>
   <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
   </si>
   <si>
     <t>15,01%</t>
   </si>
   <si>
-    <t>59,55%</t>
+    <t>59,27%</t>
   </si>
   <si>
     <t>49,56%</t>
@@ -206,10 +206,10 @@
     <t>27,24%</t>
   </si>
   <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>63,29%</t>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>62,44%</t>
   </si>
   <si>
     <t>23,25%</t>
@@ -224,46 +224,46 @@
     <t>57,47%</t>
   </si>
   <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
   </si>
   <si>
     <t>84,31%</t>
   </si>
   <si>
-    <t>35,66%</t>
+    <t>34,37%</t>
   </si>
   <si>
     <t>64,2%</t>
   </si>
   <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
   </si>
   <si>
     <t>42,53%</t>
   </si>
   <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>66,51%</t>
-  </si>
-  <si>
-    <t>64,34%</t>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
   </si>
   <si>
     <t>35,8%</t>
   </si>
   <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>56,33%</t>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
   </si>
   <si>
     <t>10,53%</t>
@@ -281,10 +281,10 @@
     <t>73,42%</t>
   </si>
   <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
+    <t>56,25%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
   </si>
   <si>
     <t>82,63%</t>
@@ -299,19 +299,19 @@
     <t>77,79%</t>
   </si>
   <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
   </si>
   <si>
     <t>20,11%</t>
   </si>
   <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
   </si>
   <si>
     <t>13,07%</t>
@@ -326,16 +326,16 @@
     <t>16,77%</t>
   </si>
   <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
   </si>
   <si>
     <t>6,47%</t>
   </si>
   <si>
-    <t>22,34%</t>
+    <t>22,26%</t>
   </si>
   <si>
     <t>4,3%</t>
@@ -350,73 +350,76 @@
     <t>1,67%</t>
   </si>
   <si>
-    <t>14,63%</t>
+    <t>14,78%</t>
   </si>
   <si>
     <t>69,29%</t>
   </si>
   <si>
-    <t>80,43%</t>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
   </si>
   <si>
     <t>78,26%</t>
   </si>
   <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
+    <t>64,0%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
   </si>
   <si>
     <t>72,96%</t>
   </si>
   <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
+    <t>63,24%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
   </si>
   <si>
     <t>25,58%</t>
   </si>
   <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
   </si>
   <si>
     <t>16,92%</t>
   </si>
   <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
   </si>
   <si>
     <t>22,03%</t>
   </si>
   <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
   </si>
   <si>
     <t>5,13%</t>
   </si>
   <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
   </si>
   <si>
     <t>4,82%</t>
   </si>
   <si>
-    <t>15,06%</t>
+    <t>15,72%</t>
   </si>
   <si>
     <t>5,0%</t>
@@ -425,7 +428,7 @@
     <t>1,86%</t>
   </si>
   <si>
-    <t>10,99%</t>
+    <t>11,48%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -840,7 +843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12B28A9B-0783-497F-8349-B28A6BD1B937}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5849CE71-1071-41A6-A3D3-3AE7AAE02E0D}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2195,10 +2198,10 @@
         <v>105</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H28" s="7">
         <v>32</v>
@@ -2207,13 +2210,13 @@
         <v>35621</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M28" s="7">
         <v>78</v>
@@ -2222,13 +2225,13 @@
         <v>81062</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2243,13 +2246,13 @@
         <v>16778</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
@@ -2258,13 +2261,13 @@
         <v>7703</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M29" s="7">
         <v>23</v>
@@ -2273,13 +2276,13 @@
         <v>24481</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2294,13 +2297,13 @@
         <v>3364</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H30" s="7">
         <v>2</v>
@@ -2309,13 +2312,13 @@
         <v>2195</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M30" s="7">
         <v>5</v>
@@ -2324,13 +2327,13 @@
         <v>5559</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2386,7 +2389,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14C08-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14C08-Edad-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4162D97-DDEF-45F6-88BA-F9014BD378FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{80DE9CD7-8F0B-4091-B6B0-C8C2A26944F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BE81AC46-A989-44F1-A916-0437108BD709}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{093AC005-CEF6-44D3-A0FF-17C8A66A9441}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="132">
   <si>
-    <t>Población según el tiempo de diagnóstico del enfermedad crónica de pulmón en 2015 (Tasa respuesta: 1,61%)</t>
+    <t>Población según el tiempo de diagnóstico del enfermedad crónica de pulmón en 2016 (Tasa respuesta: 1,61%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -107,7 +107,7 @@
     <t>79,85%</t>
   </si>
   <si>
-    <t>19,97%</t>
+    <t>38,62%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -122,7 +122,7 @@
     <t>20,15%</t>
   </si>
   <si>
-    <t>80,03%</t>
+    <t>61,38%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -140,10 +140,10 @@
     <t>53,48%</t>
   </si>
   <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
   </si>
   <si>
     <t>28,74%</t>
@@ -158,7 +158,7 @@
     <t>27,21%</t>
   </si>
   <si>
-    <t>71,58%</t>
+    <t>72,27%</t>
   </si>
   <si>
     <t>42,21%</t>
@@ -170,7 +170,7 @@
     <t>19,31%</t>
   </si>
   <si>
-    <t>66,23%</t>
+    <t>66,1%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -179,7 +179,7 @@
     <t>84,99%</t>
   </si>
   <si>
-    <t>40,73%</t>
+    <t>40,34%</t>
   </si>
   <si>
     <t>50,44%</t>
@@ -188,16 +188,16 @@
     <t>72,76%</t>
   </si>
   <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
   </si>
   <si>
     <t>15,01%</t>
   </si>
   <si>
-    <t>59,27%</t>
+    <t>59,66%</t>
   </si>
   <si>
     <t>49,56%</t>
@@ -206,10 +206,10 @@
     <t>27,24%</t>
   </si>
   <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>62,44%</t>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>62,64%</t>
   </si>
   <si>
     <t>23,25%</t>
@@ -224,46 +224,46 @@
     <t>57,47%</t>
   </si>
   <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
   </si>
   <si>
     <t>84,31%</t>
   </si>
   <si>
-    <t>34,37%</t>
+    <t>35,66%</t>
   </si>
   <si>
     <t>64,2%</t>
   </si>
   <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
   </si>
   <si>
     <t>42,53%</t>
   </si>
   <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>65,63%</t>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
   </si>
   <si>
     <t>35,8%</t>
   </si>
   <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>58,26%</t>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
   </si>
   <si>
     <t>10,53%</t>
@@ -281,154 +281,154 @@
     <t>73,42%</t>
   </si>
   <si>
-    <t>56,25%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
   </si>
   <si>
     <t>82,63%</t>
   </si>
   <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
+    <t>63,22%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
   </si>
   <si>
     <t>77,79%</t>
   </si>
   <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
   </si>
   <si>
     <t>20,11%</t>
   </si>
   <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
   </si>
   <si>
     <t>13,07%</t>
   </si>
   <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
   </si>
   <si>
     <t>16,77%</t>
   </si>
   <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
   </si>
   <si>
     <t>6,47%</t>
   </si>
   <si>
-    <t>22,26%</t>
+    <t>19,78%</t>
   </si>
   <si>
     <t>4,3%</t>
   </si>
   <si>
-    <t>24,5%</t>
+    <t>20,65%</t>
   </si>
   <si>
     <t>5,44%</t>
   </si>
   <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
   </si>
   <si>
     <t>69,29%</t>
   </si>
   <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
   </si>
   <si>
     <t>78,26%</t>
   </si>
   <si>
-    <t>64,0%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
   </si>
   <si>
     <t>72,96%</t>
   </si>
   <si>
-    <t>63,24%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
   </si>
   <si>
     <t>25,58%</t>
   </si>
   <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
   </si>
   <si>
     <t>16,92%</t>
   </si>
   <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
   </si>
   <si>
     <t>22,03%</t>
   </si>
   <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
   </si>
   <si>
     <t>5,13%</t>
   </si>
   <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
   </si>
   <si>
     <t>4,82%</t>
   </si>
   <si>
-    <t>15,72%</t>
+    <t>16,53%</t>
   </si>
   <si>
     <t>5,0%</t>
   </si>
   <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -843,7 +843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5849CE71-1071-41A6-A3D3-3AE7AAE02E0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C17394E4-8D59-4B33-810E-170A66CD9A1E}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
